--- a/biology/Histoire de la zoologie et de la botanique/Franz_Antoine/Franz_Antoine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Antoine/Franz_Antoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Antoine est un jardinier autrichien, né le 23 février 1815 à Vienne et mort le 11 mars 1886.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le directeur des jardins du château de Schönbrunn à Vienne. Antoine est l’auteur de :
 Die Coniferen, 1840-1847
@@ -519,7 +533,7 @@
 Avec Karl Georg Theodor Kotschy (1813-1866) Coniferen des Cilicischen Taurus, 1855
 Die Cupressineen-Gattungen: Arceuthos, Juniperus u. Sabina, 1857-1860
 Phyto-Iconographie der Bromeliaceen..., 1884.
-Photographe amateur, il présente ses photographies, presque exclusivement des études végétales, des natures mortes et des vues de Vienne, lors de trois expositions à Vienne en 1864 et 1873 et à Paris en 1867[1].
+Photographe amateur, il présente ses photographies, presque exclusivement des études végétales, des natures mortes et des vues de Vienne, lors de trois expositions à Vienne en 1864 et 1873 et à Paris en 1867.
 </t>
         </is>
       </c>
